--- a/jaeyong-song/final_data/worlds_match_data.xlsx
+++ b/jaeyong-song/final_data/worlds_match_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youngjun\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{512BCC0E-78B6-42C8-A34C-0E4BBB737B97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFE4BF0-7F2D-42E5-AF53-64F7CB27A04B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F938F16C-C643-4252-BFD3-19A8E8677A12}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="113">
   <si>
     <t>gameId</t>
   </si>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>['BOT_LANE', 'MID_LANE']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>['AIR_DRAGON']</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,20 +363,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>['BOT_LANE', 'TOP_LANE']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>['BOT_LANE', 'TOP_LANE', 'MID_LANE']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>['BOT_LANE', 'MID_LANE', 'TOP_LANE']</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>['EARTH_DRAGON', 'WATER_DRAGON', 'AIR_DRAGON', 'AIR_DRAGON']</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[516,28,236,523,432]</t>
+  </si>
+  <si>
+    <t>[516,28,236,523,433]</t>
+  </si>
+  <si>
+    <t>[516,28,236,523,434]</t>
+  </si>
+  <si>
+    <t>[114,107,134,202,109]</t>
+  </si>
+  <si>
+    <t>[114,107,134,202,110]</t>
+  </si>
+  <si>
+    <t>[114,107,134,202,111]</t>
   </si>
 </sst>
 </file>
@@ -744,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C27DEC-61DE-4DFE-885A-4350AC67CE0E}">
-  <dimension ref="A1:BE21"/>
+  <dimension ref="A1:BE24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2:AQ21"/>
+    <sheetView tabSelected="1" topLeftCell="AK10" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3404,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S16">
         <v>2</v>
@@ -3577,7 +3579,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S17">
         <v>2</v>
@@ -3598,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z17">
         <v>1</v>
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="AT17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AU17">
         <v>1</v>
@@ -3750,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S18">
         <v>2</v>
@@ -3771,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z18">
         <v>1</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="AT18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AU18">
         <v>2</v>
@@ -3923,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S19">
         <v>2</v>
@@ -3944,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z19">
         <v>1</v>
@@ -4007,7 +4009,7 @@
         <v>0</v>
       </c>
       <c r="AT19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AU19">
         <v>2</v>
@@ -4096,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="S20">
         <v>2</v>
@@ -4117,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z20">
         <v>1</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="AT20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AU20">
         <v>3</v>
@@ -4269,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -4290,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z21">
         <v>1</v>
@@ -4353,7 +4355,7 @@
         <v>0</v>
       </c>
       <c r="AT21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AU21">
         <v>3</v>
@@ -4374,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="BA21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="BB21">
         <v>4</v>
@@ -4387,6 +4389,525 @@
       </c>
       <c r="BE21">
         <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22">
+        <v>54300</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <v>73</v>
+      </c>
+      <c r="G22">
+        <v>14.6</v>
+      </c>
+      <c r="H22">
+        <v>1050</v>
+      </c>
+      <c r="I22">
+        <v>-1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>12</v>
+      </c>
+      <c r="L22">
+        <v>14</v>
+      </c>
+      <c r="M22">
+        <v>26</v>
+      </c>
+      <c r="N22">
+        <v>-1</v>
+      </c>
+      <c r="O22">
+        <v>-1</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22" t="s">
+        <v>102</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF22">
+        <v>56100</v>
+      </c>
+      <c r="AG22">
+        <v>-1</v>
+      </c>
+      <c r="AH22">
+        <v>77</v>
+      </c>
+      <c r="AI22">
+        <v>15.4</v>
+      </c>
+      <c r="AJ22">
+        <v>1066</v>
+      </c>
+      <c r="AK22">
+        <v>-1</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>14</v>
+      </c>
+      <c r="AN22">
+        <v>12</v>
+      </c>
+      <c r="AO22">
+        <v>23</v>
+      </c>
+      <c r="AP22">
+        <v>-1</v>
+      </c>
+      <c r="AQ22">
+        <v>-1</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU22">
+        <v>3</v>
+      </c>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>1</v>
+      </c>
+      <c r="AY22">
+        <v>0</v>
+      </c>
+      <c r="AZ22">
+        <v>1</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB22">
+        <v>4</v>
+      </c>
+      <c r="BC22">
+        <v>1</v>
+      </c>
+      <c r="BD22">
+        <v>1</v>
+      </c>
+      <c r="BE22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>108</v>
+      </c>
+      <c r="D23">
+        <v>56000</v>
+      </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23">
+        <v>74</v>
+      </c>
+      <c r="G23">
+        <v>14.8</v>
+      </c>
+      <c r="H23">
+        <v>1070</v>
+      </c>
+      <c r="I23">
+        <v>-1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <v>15</v>
+      </c>
+      <c r="M23">
+        <v>26</v>
+      </c>
+      <c r="N23">
+        <v>-1</v>
+      </c>
+      <c r="O23">
+        <v>-1</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>102</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z23">
+        <v>1</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF23">
+        <v>59800</v>
+      </c>
+      <c r="AG23">
+        <v>-1</v>
+      </c>
+      <c r="AH23">
+        <v>78</v>
+      </c>
+      <c r="AI23">
+        <v>15.6</v>
+      </c>
+      <c r="AJ23">
+        <v>1099</v>
+      </c>
+      <c r="AK23">
+        <v>-1</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+      <c r="AM23">
+        <v>15</v>
+      </c>
+      <c r="AN23">
+        <v>12</v>
+      </c>
+      <c r="AO23">
+        <v>25</v>
+      </c>
+      <c r="AP23">
+        <v>-1</v>
+      </c>
+      <c r="AQ23">
+        <v>-1</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU23">
+        <v>6</v>
+      </c>
+      <c r="AV23">
+        <v>3</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>2</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23">
+        <v>1</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB23">
+        <v>4</v>
+      </c>
+      <c r="BC23">
+        <v>1</v>
+      </c>
+      <c r="BD23">
+        <v>1</v>
+      </c>
+      <c r="BE23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>109</v>
+      </c>
+      <c r="D24">
+        <v>58300</v>
+      </c>
+      <c r="E24">
+        <v>-1</v>
+      </c>
+      <c r="F24">
+        <v>76</v>
+      </c>
+      <c r="G24">
+        <v>15.2</v>
+      </c>
+      <c r="H24">
+        <v>1121</v>
+      </c>
+      <c r="I24">
+        <v>-1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <v>20</v>
+      </c>
+      <c r="M24">
+        <v>26</v>
+      </c>
+      <c r="N24">
+        <v>-1</v>
+      </c>
+      <c r="O24">
+        <v>-1</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>102</v>
+      </c>
+      <c r="S24">
+        <v>3</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z24">
+        <v>1</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF24">
+        <v>64000</v>
+      </c>
+      <c r="AG24">
+        <v>-1</v>
+      </c>
+      <c r="AH24">
+        <v>81</v>
+      </c>
+      <c r="AI24">
+        <v>16.2</v>
+      </c>
+      <c r="AJ24">
+        <v>1135</v>
+      </c>
+      <c r="AK24">
+        <v>-1</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>20</v>
+      </c>
+      <c r="AN24">
+        <v>12</v>
+      </c>
+      <c r="AO24">
+        <v>42</v>
+      </c>
+      <c r="AP24">
+        <v>-1</v>
+      </c>
+      <c r="AQ24">
+        <v>-1</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>1</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AU24">
+        <v>6</v>
+      </c>
+      <c r="AV24">
+        <v>3</v>
+      </c>
+      <c r="AW24">
+        <v>1</v>
+      </c>
+      <c r="AX24">
+        <v>2</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>106</v>
+      </c>
+      <c r="BB24">
+        <v>4</v>
+      </c>
+      <c r="BC24">
+        <v>1</v>
+      </c>
+      <c r="BD24">
+        <v>1</v>
+      </c>
+      <c r="BE24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
